--- a/Documents/Matching tool.xlsx
+++ b/Documents/Matching tool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data require" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="78">
   <si>
     <t>UserID</t>
   </si>
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M49"/>
+  <dimension ref="B2:M67"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51:D52"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="M48" s="4"/>
     </row>
-    <row r="49" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F49" s="28" t="s">
         <v>47</v>
       </c>
@@ -2476,19 +2476,398 @@
         <v>#VALUE!</v>
       </c>
     </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="38"/>
+      <c r="D52" s="39"/>
+      <c r="F52" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="40"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" s="16"/>
+      <c r="I53" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="27">
+        <v>3</v>
+      </c>
+      <c r="D54" s="27">
+        <v>3</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" s="27">
+        <v>2</v>
+      </c>
+      <c r="H54" s="16"/>
+      <c r="I54" s="32" t="str">
+        <f>IF(G54="missing",0,CONCATENATE(C54,IF(C54=G54," = ",IF(C54&gt;G54," &gt; "," &lt; ")),G54))</f>
+        <v>3 &gt; 2</v>
+      </c>
+      <c r="J54" s="4"/>
+      <c r="K54" s="27">
+        <f>D54*C54</f>
+        <v>9</v>
+      </c>
+      <c r="L54" s="4">
+        <f>IF((G54*D54)&gt;K54,K54,G54*D54)</f>
+        <v>6</v>
+      </c>
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="23">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4">
+        <v>3</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="24">
+        <v>3</v>
+      </c>
+      <c r="H55" s="16"/>
+      <c r="I55" s="32" t="str">
+        <f>IF(G55="missing",0,CONCATENATE(C55,IF(C55=G55," = ",IF(C55&gt;G55," &gt; "," &lt; ")),G55))</f>
+        <v>1 &lt; 3</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="27">
+        <f t="shared" ref="K55:K57" si="6">D55*C55</f>
+        <v>3</v>
+      </c>
+      <c r="L55" s="4">
+        <f t="shared" ref="L55:L57" si="7">IF((G55*D55)&gt;K55,K55,G55*D55)</f>
+        <v>3</v>
+      </c>
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="4">
+        <v>4</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" s="4">
+        <v>3</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="32" t="str">
+        <f>IF(G56="missing",0,CONCATENATE(C56,IF(C56=G56," = ",IF(C56&gt;G56," &gt; "," &lt; ")),G56))</f>
+        <v>4 &gt; 3</v>
+      </c>
+      <c r="J56" s="4"/>
+      <c r="K56" s="27">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L56" s="4">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="4">
+        <v>4</v>
+      </c>
+      <c r="D57" s="4">
+        <v>3</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="4">
+        <v>4</v>
+      </c>
+      <c r="H57" s="16"/>
+      <c r="I57" s="32" t="str">
+        <f>IF(G57="missing",0,CONCATENATE(C57,IF(C57=G57," = ",IF(C57&gt;G57," &gt; "," &lt; ")),G57))</f>
+        <v>4 = 4</v>
+      </c>
+      <c r="J57" s="4"/>
+      <c r="K57" s="27">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="L57" s="4">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F58" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K58" s="25">
+        <f>SUM(K54:K57)</f>
+        <v>28</v>
+      </c>
+      <c r="L58">
+        <f>SUM(L54:L57)</f>
+        <v>24</v>
+      </c>
+      <c r="M58" s="26">
+        <f>L58/K58</f>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="38"/>
+      <c r="D61" s="39"/>
+      <c r="F61" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="40"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" s="16"/>
+      <c r="I62" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="27">
+        <v>3</v>
+      </c>
+      <c r="D63" s="27">
+        <v>3</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G63" s="27">
+        <v>2</v>
+      </c>
+      <c r="H63" s="16"/>
+      <c r="I63" s="32" t="str">
+        <f>IF(G63="missing",0,CONCATENATE(C63,IF(C63=G63," = ",IF(C63&gt;G63," &gt; "," &lt; ")),G63))</f>
+        <v>3 &gt; 2</v>
+      </c>
+      <c r="J63" s="4"/>
+      <c r="K63" s="27">
+        <f>D63*C63</f>
+        <v>9</v>
+      </c>
+      <c r="L63" s="4">
+        <f>IF((G63*D63)&gt;K63,K63,G63*D63)</f>
+        <v>6</v>
+      </c>
+      <c r="M63" s="4"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="23">
+        <v>1</v>
+      </c>
+      <c r="D64" s="4">
+        <v>3</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" s="24">
+        <v>1</v>
+      </c>
+      <c r="H64" s="16"/>
+      <c r="I64" s="32" t="str">
+        <f>IF(G64="missing",0,CONCATENATE(C64,IF(C64=G64," = ",IF(C64&gt;G64," &gt; "," &lt; ")),G64))</f>
+        <v>1 = 1</v>
+      </c>
+      <c r="J64" s="4"/>
+      <c r="K64" s="27">
+        <f t="shared" ref="K64:K66" si="8">D64*C64</f>
+        <v>3</v>
+      </c>
+      <c r="L64" s="4">
+        <f t="shared" ref="L64:L66" si="9">IF((G64*D64)&gt;K64,K64,G64*D64)</f>
+        <v>3</v>
+      </c>
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="4">
+        <v>4</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" s="4">
+        <v>1</v>
+      </c>
+      <c r="H65" s="16"/>
+      <c r="I65" s="32" t="str">
+        <f>IF(G65="missing",0,CONCATENATE(C65,IF(C65=G65," = ",IF(C65&gt;G65," &gt; "," &lt; ")),G65))</f>
+        <v>4 &gt; 1</v>
+      </c>
+      <c r="J65" s="4"/>
+      <c r="K65" s="27">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="L65" s="4">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="4">
+        <v>4</v>
+      </c>
+      <c r="D66" s="4">
+        <v>3</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="4">
+        <v>2</v>
+      </c>
+      <c r="H66" s="16"/>
+      <c r="I66" s="32" t="str">
+        <f>IF(G66="missing",0,CONCATENATE(C66,IF(C66=G66," = ",IF(C66&gt;G66," &gt; "," &lt; ")),G66))</f>
+        <v>4 &gt; 2</v>
+      </c>
+      <c r="J66" s="4"/>
+      <c r="K66" s="27">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="L66" s="4">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F67" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K67" s="25">
+        <f>SUM(K63:K66)</f>
+        <v>28</v>
+      </c>
+      <c r="L67">
+        <f>SUM(L63:L66)</f>
+        <v>16</v>
+      </c>
+      <c r="M67" s="26">
+        <f>L67/K67</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J34:M34"/>
+  <mergeCells count="24">
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="J61:M61"/>
     <mergeCell ref="J43:M43"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="F26:G26"/>
@@ -2496,8 +2875,139 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="F10:G10"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="F43:G43"/>
   </mergeCells>
-  <conditionalFormatting sqref="N2:XFD2 K1:XFD1 K3:XFD9 A1:J9 A12:XFD17 N10:XFD11 A20:XFD25 N18:XFD19 A28:XFD33 N26:XFD27 A36:XFD42 N34:XFD35 A45:XFD1048576 N43:XFD44 A10:I11 A18:I19 A26:I27 A34:I35 A43:I44">
+  <conditionalFormatting sqref="N2:XFD2 K1:XFD1 K3:XFD9 A1:J9 A12:XFD17 N10:XFD11 A20:XFD25 N18:XFD19 A28:XFD33 N26:XFD27 A36:XFD42 N34:XFD35 A45:XFD51 N43:XFD44 A10:I11 A18:I19 A26:I27 A34:I35 A43:I44 A59:XFD60 A52:A58 N52:XFD58 A68:XFD1048576 A61:A67 N61:XFD67">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:M1 K3:M9 C1:J9 C12:M17 C20:M25 C28:M33 C36:M42 C45:M51 C10:I11 C18:I19 C26:I27 C34:I35 C43:I44 C59:M60 C68:M1048576">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:M11 J10:J11">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:M11 J10:J11">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:M19 J18:J19">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:M19 J18:J19">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:M27 J26:J27">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:M27 J26:J27">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:M35 J34:J35">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:M35 J34:J35">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44:M44 J43:J44">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44:M44 J43:J44">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:I53 B54:M58">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2507,8 +3017,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:M1 K3:M9 C1:J9 C12:M17 C20:M25 C28:M33 C36:M42 C45:M1048576 C10:I11 C18:I19 C26:I27 C34:I35 C43:I44">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="C52:I53 C54:M58">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2517,7 +3027,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:M11 J10:J11">
+  <conditionalFormatting sqref="K53:M53 J52:J53">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2527,7 +3037,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:M11 J10:J11">
+  <conditionalFormatting sqref="K53:M53 J52:J53">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2537,47 +3047,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:M19 J18:J19">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:M19 J18:J19">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27:M27 J26:J27">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27:M27 J26:J27">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35:M35 J34:J35">
+  <conditionalFormatting sqref="B61:I62 B63:M67">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2587,7 +3057,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:M35 J34:J35">
+  <conditionalFormatting sqref="C61:I62 C63:M67">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2597,7 +3067,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:M44 J43:J44">
+  <conditionalFormatting sqref="K62:M62 J61:J62">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2607,7 +3077,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:M44 J43:J44">
+  <conditionalFormatting sqref="K62:M62 J61:J62">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/Documents/Matching tool.xlsx
+++ b/Documents/Matching tool.xlsx
@@ -205,9 +205,6 @@
     <t>phát triển -&gt; từ từ sử dụng interface</t>
   </si>
   <si>
-    <t>mở đề: nêu bài toán, mong muốn kết quả đạt dc, dựa vào ? Để bik giải quyểt</t>
-  </si>
-  <si>
     <t>tổng quan</t>
   </si>
   <si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>true/false</t>
+  </si>
+  <si>
+    <t>mở đề: nêu bài toán, mong muốn kết quả đạt dc, dựa vào cái gì để bik giải quyểt</t>
   </si>
 </sst>
 </file>
@@ -978,10 +978,10 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1126,36 +1126,36 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
         <v>63</v>
       </c>
-      <c r="D20" t="s">
+      <c r="L20" t="s">
         <v>64</v>
-      </c>
-      <c r="L20" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
         <v>66</v>
-      </c>
-      <c r="F21" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1163,7 +1163,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1171,20 +1171,20 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2862,12 +2862,8 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="J43:M43"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="F26:G26"/>
@@ -2884,8 +2880,12 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="J61:M61"/>
   </mergeCells>
   <conditionalFormatting sqref="N2:XFD2 K1:XFD1 K3:XFD9 A1:J9 A12:XFD17 N10:XFD11 A20:XFD25 N18:XFD19 A28:XFD33 N26:XFD27 A36:XFD42 N34:XFD35 A45:XFD51 N43:XFD44 A10:I11 A18:I19 A26:I27 A34:I35 A43:I44 A59:XFD60 A52:A58 N52:XFD58 A68:XFD1048576 A61:A67 N61:XFD67">
     <cfRule type="colorScale" priority="23">
